--- a/model_accuracy_statistics.xlsx
+++ b/model_accuracy_statistics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,6 +461,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/model_accuracy_statistics.xlsx
+++ b/model_accuracy_statistics.xlsx
@@ -1,37 +1,60 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\Reinhard\Thesis_Final\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838DB3A2-C542-4CC1-89B8-FC0E94CF15C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Accuracy" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Accuracy" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>CA Points</t>
+  </si>
+  <si>
+    <t>CA-RFA Points</t>
+  </si>
+  <si>
+    <t>Sum of Col A</t>
+  </si>
+  <si>
+    <t>Sum of Col B</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +69,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,52 +393,838 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="15.90625" customWidth="1"/>
+    <col min="5" max="5" width="14.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>CA Points</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>CA-RFA Points</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <f>SUM(A2:A101)</f>
+        <v>61</v>
+      </c>
+      <c r="E3">
+        <f>SUM(B2:B101)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>0</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>0</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>0</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>0</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>0</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>0</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>1</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>0</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>1</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>1</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>1</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>0</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>0</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>1</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>1</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>1</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>1</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>0</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>1</v>
+      </c>
+      <c r="B101">
         <v>0</v>
       </c>
     </row>
